--- a/Broad Fields of Study.xlsx
+++ b/Broad Fields of Study.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Dais Team Drive\1. Policy + Research\4. Pre-Integration Projects\1. BII+E Pre-Integrations Projects\3. Workstream  Jobs, Skills + Technology Change\202301 - Microcredentials and Labour Market Outcomes\Execution\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\OneDrive\Desktop\Brookfield 2023\Microcredentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAFE5AE-CD47-4685-B1F8-8FB820DF5A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E14483-817D-490B-938F-847FE6D7F4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{04BA39DF-3980-461B-AE4D-021B894406B2}"/>
+    <workbookView xWindow="2715" yWindow="2827" windowWidth="15390" windowHeight="9533" xr2:uid="{04BA39DF-3980-461B-AE4D-021B894406B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$136</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="139">
   <si>
     <t>Fields of study</t>
   </si>
@@ -804,18 +807,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F783CA63-189E-42B5-9E20-A963B306A0F3}">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -823,7 +826,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -831,7 +834,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -839,7 +842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -847,7 +850,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -855,7 +858,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -863,7 +866,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -871,7 +874,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -879,7 +882,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -887,7 +890,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -895,7 +898,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -903,7 +906,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -911,7 +914,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -919,7 +922,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -927,7 +930,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -935,7 +938,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -943,7 +946,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -951,7 +954,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -959,7 +962,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -967,7 +970,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -975,7 +978,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -983,7 +986,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -991,7 +994,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -1039,7 +1042,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>107</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -1087,7 +1090,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1095,7 +1098,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>119</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>122</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>127</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>128</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>132</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>134</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -1319,7 +1322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -1407,513 +1410,505 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B78" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B79" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B80" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B81" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B82" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B84" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B85" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B86" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B87" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B88" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B89" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B90" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B91" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B92" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B93" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B94" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B95" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B96" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B97" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B98" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B103" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B104" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B105" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B106" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B107" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B108" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B109" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B110" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B111" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B112" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B113" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B114" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B115" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B116" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B117" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B118" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B119" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B120" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B121" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B122" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B123" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B124" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B125" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B126" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B127" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B128" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B129" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B130" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B131" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B132" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B134" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B135" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B136" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137" t="s">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B202">
-    <sortCondition ref="B2:B202"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B201">
+    <sortCondition ref="B2:B201"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
